--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_이채미.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_이채미.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjBEIFJS/nbP3nILWn9nNAPuD3GIQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgFZlN45Ts7GXwrho/TifD/1JIHdA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>날짜</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>퇴실</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>동영상 강의</t>
@@ -42,9 +45,6 @@
   </si>
   <si>
     <t>웹브라우저와 JavaScript</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve"> BOM(창제어)</t>
@@ -81,6 +81,33 @@
   </si>
   <si>
     <t>https://react.vlpt.us/basic/16-useEffect.html</t>
+  </si>
+  <si>
+    <t>이벤트(기본 동작의 취소)</t>
+  </si>
+  <si>
+    <t>https://opentutorials.org/course/1375/6740</t>
+  </si>
+  <si>
+    <t>이벤트 (기본 동작의 취소)</t>
+  </si>
+  <si>
+    <t>(미션 1 수행 후 이어서)</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>https://opentutorials.org/course/743/6571</t>
+  </si>
+  <si>
+    <t>이벤트(onAPI 사용법)</t>
+  </si>
+  <si>
+    <t>https://opentutorials.org/course/1375/6764</t>
   </si>
   <si>
     <t>미션 리스트</t>
@@ -159,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -188,6 +215,9 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -460,25 +490,52 @@
       <c r="A4" s="2">
         <v>44015.0</v>
       </c>
+      <c r="B4" s="3">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.8958333333333334</v>
+      </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="2">
         <v>44016.0</v>
       </c>
+      <c r="B5" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="2">
         <v>44017.0</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="2">
         <v>44018.0</v>
       </c>
+      <c r="B7" s="3">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>44019.0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.4201388888888889</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
@@ -1600,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -1617,10 +1674,10 @@
         <v>44013.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1631,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
@@ -1642,7 +1699,7 @@
         <v>44014.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -1673,10 +1730,13 @@
         <v>44015.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>18</v>
@@ -1689,6 +1749,9 @@
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1697,146 +1760,238 @@
       <c r="A8" s="2">
         <v>44016.0</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="2">
-        <v>44017.0</v>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="2">
-        <v>44018.0</v>
+        <v>44017.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="2">
-        <v>44019.0</v>
+        <v>44018.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="2">
-        <v>44020.0</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="2">
-        <v>44021.0</v>
+        <v>44019.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="2">
-        <v>44022.0</v>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="2">
-        <v>44023.0</v>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="2">
-        <v>44024.0</v>
+        <v>44020.0</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="2">
-        <v>44025.0</v>
+        <v>44021.0</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="2">
-        <v>44026.0</v>
+        <v>44022.0</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="2">
-        <v>44027.0</v>
+        <v>44023.0</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="2">
-        <v>44028.0</v>
+        <v>44024.0</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="2">
-        <v>44029.0</v>
+        <v>44025.0</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="2">
-        <v>44030.0</v>
+        <v>44026.0</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="2">
-        <v>44031.0</v>
+        <v>44027.0</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="2">
-        <v>44032.0</v>
+        <v>44028.0</v>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="2">
-        <v>44033.0</v>
+        <v>44029.0</v>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="2">
-        <v>44034.0</v>
+        <v>44030.0</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="2">
-        <v>44035.0</v>
+        <v>44031.0</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="2">
-        <v>44036.0</v>
+        <v>44032.0</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="2">
-        <v>44037.0</v>
+        <v>44033.0</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="2">
-        <v>44038.0</v>
+        <v>44034.0</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="2">
-        <v>44039.0</v>
+        <v>44035.0</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="2">
-        <v>44040.0</v>
+        <v>44036.0</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="2">
-        <v>44041.0</v>
+        <v>44037.0</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="2">
-        <v>44042.0</v>
+        <v>44038.0</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="2">
+        <v>44039.0</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c r="A36" s="2">
+        <v>44040.0</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c r="A37" s="2">
+        <v>44041.0</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c r="A38" s="2">
+        <v>44042.0</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c r="A39" s="2">
         <v>44043.0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
     <row r="40" ht="16.5" customHeight="1"/>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1"/>
@@ -2801,22 +2956,36 @@
     <row r="1001" ht="16.5" customHeight="1"/>
     <row r="1002" ht="16.5" customHeight="1"/>
     <row r="1003" ht="16.5" customHeight="1"/>
+    <row r="1004" ht="16.5" customHeight="1"/>
+    <row r="1005" ht="16.5" customHeight="1"/>
+    <row r="1006" ht="16.5" customHeight="1"/>
+    <row r="1007" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E4"/>
     <hyperlink r:id="rId2" ref="E5"/>
     <hyperlink r:id="rId3" ref="E6"/>
     <hyperlink r:id="rId4" ref="E7"/>
+    <hyperlink r:id="rId5" ref="E8"/>
+    <hyperlink r:id="rId6" ref="E9"/>
+    <hyperlink r:id="rId7" ref="E11"/>
+    <hyperlink r:id="rId8" ref="E12"/>
+    <hyperlink r:id="rId9" ref="E13"/>
+    <hyperlink r:id="rId10" ref="E14"/>
+    <hyperlink r:id="rId11" ref="E15"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -2836,29 +3005,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
+      <c r="A1" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1"/>
